--- a/Application/system/plugins/Human_resources/modules/html/staff.xlsx
+++ b/Application/system/plugins/Human_resources/modules/html/staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bframe\Application\system\plugins\Human_resources\modules\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B88233B-8E4F-4F27-86F4-CE59E6E4AE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C540C2F-1D22-482A-8B67-71B52320D0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10148" yWindow="-98" windowWidth="28994" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>full_name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve"> employment_end_date</t>
+  </si>
+  <si>
+    <t>staff_nida</t>
+  </si>
+  <si>
+    <t>staff_tin</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,9 +931,11 @@
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +981,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L2" s="1"/>
     </row>
   </sheetData>
